--- a/data/trans_camb/P38C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Habitat-trans_camb.xlsx
@@ -570,7 +570,7 @@
         <v>3.785413129595316</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.346730279752297</v>
+        <v>3.346730279752308</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.079691649230821</v>
+        <v>-2.356778935208596</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3319374652219808</v>
+        <v>0.6158351991406366</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5467949464633257</v>
+        <v>0.4574895187715137</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.276788214629387</v>
+        <v>7.137647871954364</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.019623394732906</v>
+        <v>6.75431592910542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.186788906911887</v>
+        <v>6.057578246319426</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0.04311761503588217</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.03921760891330255</v>
+        <v>0.03921760891330267</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02493730673801842</v>
+        <v>-0.02770502088054799</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.003708981192140115</v>
+        <v>0.006640009969464746</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.00639839371482302</v>
+        <v>0.005295293482526784</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.08934141893846002</v>
+        <v>0.08822459635865705</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.08170368704556887</v>
+        <v>0.07849648856541795</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.07383271166178672</v>
+        <v>0.07140402178815809</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-5.394965838406396</v>
+        <v>-5.394965838406385</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-5.90112166762724</v>
+        <v>-5.90112166762723</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-5.674061737156844</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.511906255201449</v>
+        <v>-9.512424971032981</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.606187818742688</v>
+        <v>-8.604408105565033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.035155407302225</v>
+        <v>-8.315969202506603</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.629510432690067</v>
+        <v>-1.499214228160013</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.736345105722811</v>
+        <v>-2.919144860351671</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.114679365390062</v>
+        <v>-3.090103021172053</v>
       </c>
     </row>
     <row r="13">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.06546911465094223</v>
+        <v>-0.06546911465094209</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.06526328436779517</v>
+        <v>-0.06526328436779505</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.06561708308633162</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1138797852243537</v>
+        <v>-0.1137213335262059</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09393011763849375</v>
+        <v>-0.09485847931328199</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09191790406482102</v>
+        <v>-0.09512030891789951</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.02104936204632891</v>
+        <v>-0.01848810621816262</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03080042461999912</v>
+        <v>-0.03311874077144347</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.03677664956628494</v>
+        <v>-0.03609568757767578</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>-1.43988601021241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.853787851482369</v>
+        <v>-1.853787851482358</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.278139878518097</v>
+        <v>-6.763891483329748</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.116146102935446</v>
+        <v>-5.072519195839938</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.152575850633879</v>
+        <v>-4.897128989815121</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.684885593542294</v>
+        <v>3.084342528345911</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.078553495020058</v>
+        <v>2.304841757622761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.065375174079604</v>
+        <v>1.041341089033282</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>-0.01649378382195876</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.02211409049722242</v>
+        <v>-0.02211409049722229</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09009700171235466</v>
+        <v>-0.08262009771935114</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05761030365996674</v>
+        <v>-0.05744720092941272</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.06022886550911895</v>
+        <v>-0.05822630261604826</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.0341120815580622</v>
+        <v>0.03971041131693055</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02430640698609736</v>
+        <v>0.02720272356840762</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.01274800404557246</v>
+        <v>0.01260354373475472</v>
       </c>
     </row>
     <row r="22">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-1.944193375539716</v>
+        <v>-1.944193375539727</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.342526832753876</v>
+        <v>1.342526832753865</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.1897592637352896</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.359137561525651</v>
+        <v>-6.132062369580723</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.763185140976298</v>
+        <v>-1.695829091458373</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.061272209372725</v>
+        <v>-2.661815196844795</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.047015826027612</v>
+        <v>1.975322982423059</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.524524737809752</v>
+        <v>4.630967760737394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.267791936755149</v>
+        <v>2.302620223146614</v>
       </c>
     </row>
     <row r="25">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.02416212832480414</v>
+        <v>-0.02416212832480428</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.01591917458975627</v>
+        <v>0.01591917458975614</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.002299955133410397</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07708517237562003</v>
+        <v>-0.07603807857719674</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02056988138674814</v>
+        <v>-0.01955304879394596</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03657203734597454</v>
+        <v>-0.03208660160714128</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0257653068387268</v>
+        <v>0.02462398858340769</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.05470642189358247</v>
+        <v>0.05561688464781744</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02796953608675119</v>
+        <v>0.02793785396396793</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-2.116196979239038</v>
+        <v>-2.116196979239027</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-0.8967093798367687</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.484551447243343</v>
+        <v>-1.484551447243365</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.210833641588012</v>
+        <v>-4.517886113691545</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.575292772426326</v>
+        <v>-2.499303461655119</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.759870577300935</v>
+        <v>-2.919768296169158</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1090525852571374</v>
+        <v>-0.0447137037762218</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7560010958341993</v>
+        <v>0.8000754812533644</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1416617705403342</v>
+        <v>-0.2254606517749004</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.02597390534370699</v>
+        <v>-0.02597390534370686</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.01025506967614189</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.01756225061427376</v>
+        <v>-0.01756225061427402</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05165007682720354</v>
+        <v>-0.05492924725850769</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0291868098419112</v>
+        <v>-0.02846674529130425</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03248402440512212</v>
+        <v>-0.03446581557629871</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.001340322802899522</v>
+        <v>-0.0005848553704771602</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.008689793099489102</v>
+        <v>0.009339266279602767</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.001669787712734167</v>
+        <v>-0.00268677275885035</v>
       </c>
     </row>
     <row r="34">
